--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H2">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N2">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q2">
-        <v>28.50743561738756</v>
+        <v>2.128028076500334</v>
       </c>
       <c r="R2">
-        <v>256.5669205564881</v>
+        <v>19.152252688503</v>
       </c>
       <c r="S2">
-        <v>0.07461920703228966</v>
+        <v>0.00432050972896315</v>
       </c>
       <c r="T2">
-        <v>0.07461920703228966</v>
+        <v>0.004320509728963149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H3">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q3">
-        <v>11.65025589864689</v>
+        <v>8.147706111405666</v>
       </c>
       <c r="R3">
-        <v>104.852303087822</v>
+        <v>73.329355002651</v>
       </c>
       <c r="S3">
-        <v>0.03049495116109474</v>
+        <v>0.01654218941554232</v>
       </c>
       <c r="T3">
-        <v>0.03049495116109473</v>
+        <v>0.01654218941554231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H4">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N4">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O4">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P4">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q4">
-        <v>50.20242324707822</v>
+        <v>71.43726086817099</v>
       </c>
       <c r="R4">
-        <v>451.821809223704</v>
+        <v>642.935347813539</v>
       </c>
       <c r="S4">
-        <v>0.1314065938470987</v>
+        <v>0.1450382088468479</v>
       </c>
       <c r="T4">
-        <v>0.1314065938470987</v>
+        <v>0.1450382088468478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J5">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N5">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q5">
-        <v>63.9666675457249</v>
+        <v>6.827678085804779</v>
       </c>
       <c r="R5">
-        <v>575.700007911524</v>
+        <v>61.449102772243</v>
       </c>
       <c r="S5">
-        <v>0.16743498337847</v>
+        <v>0.01386215244136297</v>
       </c>
       <c r="T5">
-        <v>0.16743498337847</v>
+        <v>0.01386215244136297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J6">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q6">
-        <v>26.14153219158123</v>
+        <v>26.14153219158122</v>
       </c>
       <c r="R6">
-        <v>235.2737897242311</v>
+        <v>235.273789724231</v>
       </c>
       <c r="S6">
-        <v>0.06842637229548268</v>
+        <v>0.05307483740979314</v>
       </c>
       <c r="T6">
-        <v>0.06842637229548268</v>
+        <v>0.05307483740979314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J7">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N7">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O7">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P7">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q7">
-        <v>112.6471619873436</v>
+        <v>229.2030946046843</v>
       </c>
       <c r="R7">
-        <v>1013.824457886092</v>
+        <v>2062.827851442159</v>
       </c>
       <c r="S7">
-        <v>0.2948578754943009</v>
+        <v>0.4653482776301353</v>
       </c>
       <c r="T7">
-        <v>0.2948578754943009</v>
+        <v>0.4653482776301353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H8">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N8">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q8">
-        <v>28.05416072684933</v>
+        <v>3.871397090265667</v>
       </c>
       <c r="R8">
-        <v>252.487446541644</v>
+        <v>34.842573812391</v>
       </c>
       <c r="S8">
-        <v>0.07343274419664333</v>
+        <v>0.007860050803784506</v>
       </c>
       <c r="T8">
-        <v>0.07343274419664333</v>
+        <v>0.007860050803784503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H9">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.344147</v>
       </c>
       <c r="O9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q9">
-        <v>11.46501410636233</v>
+        <v>14.82264547181633</v>
       </c>
       <c r="R9">
-        <v>103.185126957261</v>
+        <v>133.403809246347</v>
       </c>
       <c r="S9">
-        <v>0.03001007430878737</v>
+        <v>0.03009423826553728</v>
       </c>
       <c r="T9">
-        <v>0.03001007430878736</v>
+        <v>0.03009423826553728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H10">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N10">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O10">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P10">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q10">
-        <v>49.40419298156132</v>
+        <v>129.961632985787</v>
       </c>
       <c r="R10">
-        <v>444.6377368340519</v>
+        <v>1169.654696872083</v>
       </c>
       <c r="S10">
-        <v>0.1293171982858327</v>
+        <v>0.2638595354580336</v>
       </c>
       <c r="T10">
-        <v>0.1293171982858327</v>
+        <v>0.2638595354580336</v>
       </c>
     </row>
   </sheetData>
